--- a/07. 系统验证/NS期初数据导入模板/期初科目余额导入模板.xlsx
+++ b/07. 系统验证/NS期初数据导入模板/期初科目余额导入模板.xlsx
@@ -1,31 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11013"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\周清晓\云文档\NetSuite\项目\Powerark\导入模板\期初数据导入模板\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhoulinux/OneDrive/NetSuite/projects/Implementation/Yaye/07. 系统验证/NS期初数据导入模板/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_A6C3C5B53EAD63500B85C30FEBB4024E24E7CF7C" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{29764E3B-7163-FF4E-A0F5-F5B7C0E20FD7}"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="75" windowWidth="19395" windowHeight="8730"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="期初科目余额导入" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>xunzhuo</author>
     <author>ThinkPad</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -51,7 +52,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="1" shapeId="0">
+    <comment ref="E1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -65,7 +66,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="1" shapeId="0">
+    <comment ref="M1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -208,8 +209,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="26" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="26">
     <font>
       <sz val="8"/>
       <name val="Arial"/>
@@ -384,7 +385,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -850,76 +851,76 @@
     </xf>
   </cellXfs>
   <cellStyles count="70">
-    <cellStyle name="20% - 着色 1" xfId="2"/>
-    <cellStyle name="20% - 着色 1 2" xfId="3"/>
-    <cellStyle name="20% - 着色 2" xfId="4"/>
-    <cellStyle name="20% - 着色 2 2" xfId="5"/>
-    <cellStyle name="20% - 着色 3" xfId="6"/>
-    <cellStyle name="20% - 着色 3 2" xfId="7"/>
-    <cellStyle name="20% - 着色 4" xfId="8"/>
-    <cellStyle name="20% - 着色 4 2" xfId="9"/>
-    <cellStyle name="20% - 着色 5" xfId="10"/>
-    <cellStyle name="20% - 着色 5 2" xfId="11"/>
-    <cellStyle name="20% - 着色 6" xfId="12"/>
-    <cellStyle name="20% - 着色 6 2" xfId="13"/>
-    <cellStyle name="40% - 着色 1" xfId="14"/>
-    <cellStyle name="40% - 着色 1 2" xfId="15"/>
-    <cellStyle name="40% - 着色 2" xfId="16"/>
-    <cellStyle name="40% - 着色 2 2" xfId="17"/>
-    <cellStyle name="40% - 着色 3" xfId="18"/>
-    <cellStyle name="40% - 着色 3 2" xfId="19"/>
-    <cellStyle name="40% - 着色 4" xfId="20"/>
-    <cellStyle name="40% - 着色 4 2" xfId="21"/>
-    <cellStyle name="40% - 着色 5" xfId="22"/>
-    <cellStyle name="40% - 着色 5 2" xfId="23"/>
-    <cellStyle name="40% - 着色 6" xfId="24"/>
-    <cellStyle name="40% - 着色 6 2" xfId="25"/>
-    <cellStyle name="60% - 着色 1" xfId="26"/>
-    <cellStyle name="60% - 着色 1 2" xfId="27"/>
-    <cellStyle name="60% - 着色 2" xfId="28"/>
-    <cellStyle name="60% - 着色 2 2" xfId="29"/>
-    <cellStyle name="60% - 着色 3" xfId="30"/>
-    <cellStyle name="60% - 着色 3 2" xfId="31"/>
-    <cellStyle name="60% - 着色 4" xfId="32"/>
-    <cellStyle name="60% - 着色 4 2" xfId="33"/>
-    <cellStyle name="60% - 着色 5" xfId="34"/>
-    <cellStyle name="60% - 着色 5 2" xfId="35"/>
-    <cellStyle name="60% - 着色 6" xfId="36"/>
-    <cellStyle name="60% - 着色 6 2" xfId="37"/>
-    <cellStyle name="Normal 2" xfId="38"/>
-    <cellStyle name="Normal 2 2" xfId="39"/>
-    <cellStyle name="标题 1 2" xfId="40"/>
-    <cellStyle name="标题 2 2" xfId="41"/>
-    <cellStyle name="标题 3 2" xfId="42"/>
-    <cellStyle name="标题 4 2" xfId="43"/>
-    <cellStyle name="标题 5" xfId="44"/>
-    <cellStyle name="差 2" xfId="45"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="46"/>
-    <cellStyle name="常规 3" xfId="1"/>
-    <cellStyle name="好 2" xfId="47"/>
-    <cellStyle name="汇总 2" xfId="48"/>
-    <cellStyle name="计算 2" xfId="49"/>
-    <cellStyle name="检查单元格 2" xfId="50"/>
-    <cellStyle name="解释性文本 2" xfId="51"/>
-    <cellStyle name="警告文本 2" xfId="52"/>
-    <cellStyle name="链接单元格 2" xfId="53"/>
-    <cellStyle name="适中 2" xfId="54"/>
-    <cellStyle name="输出 2" xfId="55"/>
-    <cellStyle name="输入 2" xfId="56"/>
-    <cellStyle name="着色 1" xfId="57"/>
-    <cellStyle name="着色 1 2" xfId="58"/>
-    <cellStyle name="着色 2" xfId="59"/>
-    <cellStyle name="着色 2 2" xfId="60"/>
-    <cellStyle name="着色 3" xfId="61"/>
-    <cellStyle name="着色 3 2" xfId="62"/>
-    <cellStyle name="着色 4" xfId="63"/>
-    <cellStyle name="着色 4 2" xfId="64"/>
-    <cellStyle name="着色 5" xfId="65"/>
-    <cellStyle name="着色 5 2" xfId="66"/>
-    <cellStyle name="着色 6" xfId="67"/>
-    <cellStyle name="着色 6 2" xfId="68"/>
-    <cellStyle name="注释 2" xfId="69"/>
+    <cellStyle name="20% - 着色 1" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="20% - 着色 1 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="20% - 着色 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="20% - 着色 2 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="20% - 着色 3" xfId="6" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="20% - 着色 3 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="20% - 着色 4" xfId="8" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="20% - 着色 4 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="20% - 着色 5" xfId="10" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="20% - 着色 5 2" xfId="11" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="20% - 着色 6" xfId="12" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="20% - 着色 6 2" xfId="13" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="40% - 着色 1" xfId="14" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="40% - 着色 1 2" xfId="15" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="40% - 着色 2" xfId="16" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="40% - 着色 2 2" xfId="17" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="40% - 着色 3" xfId="18" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="40% - 着色 3 2" xfId="19" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="40% - 着色 4" xfId="20" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="40% - 着色 4 2" xfId="21" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="40% - 着色 5" xfId="22" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="40% - 着色 5 2" xfId="23" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="40% - 着色 6" xfId="24" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="40% - 着色 6 2" xfId="25" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="60% - 着色 1" xfId="26" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="60% - 着色 1 2" xfId="27" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="60% - 着色 2" xfId="28" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="60% - 着色 2 2" xfId="29" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="60% - 着色 3" xfId="30" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
+    <cellStyle name="60% - 着色 3 2" xfId="31" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
+    <cellStyle name="60% - 着色 4" xfId="32" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
+    <cellStyle name="60% - 着色 4 2" xfId="33" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
+    <cellStyle name="60% - 着色 5" xfId="34" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="60% - 着色 5 2" xfId="35" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="60% - 着色 6" xfId="36" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
+    <cellStyle name="60% - 着色 6 2" xfId="37" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="38" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
+    <cellStyle name="Normal 2 2" xfId="39" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
+    <cellStyle name="好 2" xfId="47" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
+    <cellStyle name="差 2" xfId="45" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
+    <cellStyle name="常规 2" xfId="46" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
+    <cellStyle name="常规 3" xfId="1" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
+    <cellStyle name="标题 1 2" xfId="40" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
+    <cellStyle name="标题 2 2" xfId="41" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
+    <cellStyle name="标题 3 2" xfId="42" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
+    <cellStyle name="标题 4 2" xfId="43" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
+    <cellStyle name="标题 5" xfId="44" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
+    <cellStyle name="检查单元格 2" xfId="50" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
+    <cellStyle name="汇总 2" xfId="48" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
+    <cellStyle name="注释 2" xfId="69" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
+    <cellStyle name="着色 1" xfId="57" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
+    <cellStyle name="着色 1 2" xfId="58" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
+    <cellStyle name="着色 2" xfId="59" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
+    <cellStyle name="着色 2 2" xfId="60" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
+    <cellStyle name="着色 3" xfId="61" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
+    <cellStyle name="着色 3 2" xfId="62" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
+    <cellStyle name="着色 4" xfId="63" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
+    <cellStyle name="着色 4 2" xfId="64" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
+    <cellStyle name="着色 5" xfId="65" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
+    <cellStyle name="着色 5 2" xfId="66" xr:uid="{00000000-0005-0000-0000-000042000000}"/>
+    <cellStyle name="着色 6" xfId="67" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
+    <cellStyle name="着色 6 2" xfId="68" xr:uid="{00000000-0005-0000-0000-000044000000}"/>
+    <cellStyle name="解释性文本 2" xfId="51" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
+    <cellStyle name="警告文本 2" xfId="52" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
+    <cellStyle name="计算 2" xfId="49" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="输入 2" xfId="56" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
+    <cellStyle name="输出 2" xfId="55" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
+    <cellStyle name="适中 2" xfId="54" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
+    <cellStyle name="链接单元格 2" xfId="53" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -935,7 +936,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1010,6 +1011,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1045,6 +1063,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1220,31 +1255,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="16.5" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.25" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="45.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="64.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="9.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.33203125" style="3"/>
+    <col min="1" max="1" width="51.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="68.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.25" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13">
       <c r="A1" s="5" t="s">
         <v>8</v>
       </c>
@@ -1285,7 +1321,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
         <v>28</v>
       </c>
@@ -1324,7 +1360,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
         <v>28</v>
       </c>
